--- a/Bill of materials.xlsx
+++ b/Bill of materials.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hayde\OneDrive\Documents\GitHub\EE-109K---PCB-Design\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8965BC81-EE99-4232-A94B-3E6A821002EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1224" yWindow="1104" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,22 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>GPS module(NEO-6M)</t>
+  </si>
+  <si>
+    <t>https://www.u-blox.com/en/product/neo-6-series</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +69,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +351,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bill of materials.xlsx
+++ b/Bill of materials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hayde\OneDrive\Documents\GitHub\EE-109K---PCB-Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avuon\OneDrive\Desktop\github\EE-109K---PCB-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8965BC81-EE99-4232-A94B-3E6A821002EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC1D2C5-FDF3-4982-988F-E61BCD1EF63C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1224" yWindow="1104" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7776" yWindow="1752" windowWidth="12264" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>GPS module(NEO-6M)</t>
   </si>
   <si>
     <t>https://www.u-blox.com/en/product/neo-6-series</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/added</t>
   </si>
 </sst>
 </file>
@@ -40,10 +46,18 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,14 +80,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -352,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:C3"/>
+  <dimension ref="A3:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -371,7 +388,21 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{39911576-525E-472D-8FFB-C8BCC4CC0168}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bill of materials.xlsx
+++ b/Bill of materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avuon\OneDrive\Desktop\github\EE-109K---PCB-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC1D2C5-FDF3-4982-988F-E61BCD1EF63C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D51B3E6-FC8D-4FD3-9596-660F3228AFD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7776" yWindow="1752" windowWidth="12264" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <t>Speaker</t>
   </si>
   <si>
-    <t>https://www.adafruit.com/added</t>
+    <t>https://www.sparkfun.com/products/12567</t>
   </si>
 </sst>
 </file>
@@ -372,7 +372,7 @@
   <dimension ref="A3:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -393,7 +393,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>7.5</v>
+        <v>4.95</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -401,7 +401,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{39911576-525E-472D-8FFB-C8BCC4CC0168}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{7FA56E67-50AD-434A-95E1-F0D9137F6380}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bill of materials.xlsx
+++ b/Bill of materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avuon\OneDrive\Desktop\github\EE-109K---PCB-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D51B3E6-FC8D-4FD3-9596-660F3228AFD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727ABB68-7B05-433F-85EF-25123B51A09B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7776" yWindow="1752" windowWidth="12264" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <t>Speaker</t>
   </si>
   <si>
-    <t>https://www.sparkfun.com/products/12567</t>
+    <t>https://www.digikey.com/product-detail/en/pui-audio-inc/SMS-1308MS-2-R/668-1259-1-ND/2783914</t>
   </si>
 </sst>
 </file>
@@ -372,7 +372,7 @@
   <dimension ref="A3:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -393,7 +393,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>4.95</v>
+        <v>7.61</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -401,7 +401,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{7FA56E67-50AD-434A-95E1-F0D9137F6380}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{72CE35E9-1D85-4B62-A814-69EE9E15C6EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bill of materials.xlsx
+++ b/Bill of materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avuon\OneDrive\Desktop\github\EE-109K---PCB-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727ABB68-7B05-433F-85EF-25123B51A09B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450D0500-5639-4FFC-8007-89E26E76F624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7776" yWindow="1752" windowWidth="12264" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <t>Speaker</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/pui-audio-inc/SMS-1308MS-2-R/668-1259-1-ND/2783914</t>
+    <t>https://www.amazon.com/Passive-Buzzer-Arduino-3-3V-5V-Interface/dp/B07KNV8KVJ</t>
   </si>
 </sst>
 </file>
@@ -372,7 +372,7 @@
   <dimension ref="A3:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -393,7 +393,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>7.61</v>
+        <v>1.66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -401,7 +401,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{72CE35E9-1D85-4B62-A814-69EE9E15C6EC}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{A8B549FC-7A13-4BB4-872B-4255DEFFDF8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bill of materials.xlsx
+++ b/Bill of materials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avuon\OneDrive\Desktop\github\EE-109K---PCB-Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fred8\OneDrive\Desktop\UT\Semester 2\EE 109k - First Year Design Experience\Bike Alarm Repo\EE-109K---PCB-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450D0500-5639-4FFC-8007-89E26E76F624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F6926A-54E4-4B93-90BA-3A5FEA18CAFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7776" yWindow="1752" windowWidth="12264" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>GPS module(NEO-6M)</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>https://www.amazon.com/Passive-Buzzer-Arduino-3-3V-5V-Interface/dp/B07KNV8KVJ</t>
+  </si>
+  <si>
+    <t>Accelerometer</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/12786</t>
   </si>
 </sst>
 </file>
@@ -369,15 +375,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:C4"/>
+  <dimension ref="A3:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="19.89453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -388,7 +397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -397,11 +406,23 @@
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{A8B549FC-7A13-4BB4-872B-4255DEFFDF8A}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{E68677A9-08BF-4CA3-A387-1CE739DF6245}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bill of materials.xlsx
+++ b/Bill of materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fred8\OneDrive\Desktop\UT\Semester 2\EE 109k - First Year Design Experience\Bike Alarm Repo\EE-109K---PCB-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F6926A-54E4-4B93-90BA-3A5FEA18CAFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10DD250-78BD-4465-B7C1-416902551E37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
   <dimension ref="A3:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
